--- a/resources/experiment 1/metrics/R2/incidence/Retinopatía de fondo (INC).xlsx
+++ b/resources/experiment 1/metrics/R2/incidence/Retinopatía de fondo (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999768833271144</v>
+        <v>0.9997908077299428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9997683814316817</v>
+        <v>0.9998092568769338</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9997683814316817</v>
+        <v>0.9977913833509873</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999834518794445</v>
+        <v>0.9997928356178981</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999834518794445</v>
+        <v>0.9998053906431603</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999834518794445</v>
+        <v>0.9991552353872226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9978389657053698</v>
+        <v>0.9998167229049079</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9978389657053698</v>
+        <v>0.9998096953785893</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9978389657053698</v>
+        <v>0.999797275258466</v>
       </c>
     </row>
   </sheetData>
